--- a/ReadingSkills.xlsx
+++ b/ReadingSkills.xlsx
@@ -1,21 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\remi.DESKTOP-UI81QOM\Desktop\VERSIONS PROJETS TT\COURS v10tt\6. Stat R analyse linguistique 23-24\COURS\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E543675B-BE17-44A0-AF69-B3A7A4EB7131}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="7">
+  <si>
+    <t>accuracy</t>
+  </si>
+  <si>
+    <t>dyslexia</t>
+  </si>
+  <si>
+    <t>iq</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>sujet</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -63,11 +95,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -109,7 +149,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +181,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +233,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,599 +426,821 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C45"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B45"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>dyslexia</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>iq</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>0.88386</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <f ca="1">RANDBETWEEN(18,80)</f>
+        <v>69</v>
       </c>
       <c r="C2">
-        <v>0.827</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0.88385999999999998</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2">
+        <v>0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3">
-        <v>0.76524</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B45" ca="1" si="0">RANDBETWEEN(18,80)</f>
+        <v>67</v>
       </c>
       <c r="C3">
+        <v>0.76524000000000003</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3">
         <v>0.59</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <f t="shared" ca="1" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="C4">
         <v>0.91508</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C4">
-        <v>0.471</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5">
-        <v>0.98376</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
       </c>
       <c r="C5">
-        <v>1.144</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>0.98375999999999997</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>1.1439999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6">
-        <v>0.88386</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="C6">
-        <v>-0.676</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>0.88385999999999998</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>-0.67600000000000005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7">
-        <v>0.70905</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
       </c>
       <c r="C7">
-        <v>-0.795</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>0.70904999999999996</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>-0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8">
-        <v>0.7714800000000001</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <f t="shared" ca="1" si="0"/>
+        <v>62</v>
       </c>
       <c r="C8">
-        <v>-0.281</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>0.77148000000000005</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>-0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C9">
         <v>0.99</v>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C9">
-        <v>-0.914</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>-0.91400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <f t="shared" ca="1" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="C10">
         <v>0.99</v>
       </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C10">
-        <v>-0.043</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ca="1" si="0"/>
+        <v>69</v>
+      </c>
+      <c r="C11">
         <v>0.99</v>
       </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>0.907</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>0.90700000000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <f t="shared" ca="1" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C12">
         <v>0.99</v>
       </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.511</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C13">
         <v>0.99</v>
       </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>1.223</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <f t="shared" ca="1" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="C14">
         <v>0.99</v>
       </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C14">
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14">
         <v>0.59</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="C15">
         <v>0.99</v>
       </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>1.856</v>
-      </c>
-    </row>
-    <row r="16">
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15">
+        <v>1.8560000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="C16">
         <v>0.99</v>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>-0.399</v>
-      </c>
-    </row>
-    <row r="17">
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>-0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C17">
         <v>0.99</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C17">
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17">
         <v>0.59</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
-        <v>0.70281</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ca="1" si="0"/>
+        <v>53</v>
       </c>
       <c r="C18">
-        <v>-0.043</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>0.70281000000000005</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>-4.2999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C19">
         <v>0.99</v>
       </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C19">
+      <c r="D19" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19">
         <v>1.738</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="C20">
         <v>0.66535</v>
       </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>0.471</v>
-      </c>
-    </row>
-    <row r="21">
+      <c r="D20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <f t="shared" ca="1" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="C21">
         <v>0.99</v>
       </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C21">
+      <c r="D21" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21">
         <v>1.619</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
-        <v>0.95878</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <f t="shared" ca="1" si="0"/>
+        <v>45</v>
       </c>
       <c r="C22">
-        <v>1.144</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>0.95877999999999997</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>1.1439999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="C23">
         <v>0.99</v>
       </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>-0.201</v>
-      </c>
-    </row>
-    <row r="24">
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>-0.20100000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
-        <v>0.73402</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <f t="shared" ca="1" si="0"/>
+        <v>31</v>
       </c>
       <c r="C24">
-        <v>-0.281</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>0.73402000000000001</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24">
+        <v>-0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
-        <v>0.64662</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <f t="shared" ca="1" si="0"/>
+        <v>71</v>
       </c>
       <c r="C25">
+        <v>0.64661999999999997</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25">
         <v>0.59</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <f t="shared" ca="1" si="0"/>
+        <v>76</v>
+      </c>
+      <c r="C26">
         <v>0.99</v>
       </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="C26">
-        <v>1.777</v>
-      </c>
-    </row>
-    <row r="27">
+      <c r="D26" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26">
+        <v>1.7769999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
-        <v>0.57794</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="C27">
-        <v>-0.083</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>0.57794000000000001</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
-        <v>0.6403799999999999</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>-0.162</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>0.64037999999999995</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>-0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
-        <v>0.45932</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <f t="shared" ca="1" si="0"/>
+        <v>50</v>
       </c>
       <c r="C29">
-        <v>-0.795</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>0.45932000000000001</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>-0.79500000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <f t="shared" ca="1" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C30">
         <v>0.65286</v>
       </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C30">
-        <v>-0.281</v>
-      </c>
-    </row>
-    <row r="31">
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>-0.28100000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
-        <v>0.60916</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
       </c>
       <c r="C31">
+        <v>0.60916000000000003</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31">
         <v>-0.874</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
-        <v>0.60916</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
       </c>
       <c r="C32">
+        <v>0.60916000000000003</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32">
         <v>0.313</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
-        <v>0.54048</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <f t="shared" ca="1" si="0"/>
+        <v>40</v>
       </c>
       <c r="C33">
-        <v>0.709</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>0.54047999999999996</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>0.70899999999999996</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
-        <v>0.5717</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ca="1" si="0"/>
+        <v>55</v>
       </c>
       <c r="C34">
-        <v>1.223</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>0.57169999999999999</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34">
+        <v>1.2230000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
-        <v>0.70281</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <f t="shared" ca="1" si="0"/>
+        <v>66</v>
       </c>
       <c r="C35">
+        <v>0.70281000000000005</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35">
         <v>-1.23</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
-        <v>0.56546</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <f t="shared" ca="1" si="0"/>
+        <v>56</v>
       </c>
       <c r="C36">
-        <v>-0.162</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>0.56545999999999996</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36">
+        <v>-0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
-        <v>0.53424</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <f t="shared" ca="1" si="0"/>
+        <v>27</v>
       </c>
       <c r="C37">
-        <v>-0.993</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>0.53424000000000005</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37">
+        <v>-0.99299999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
-        <v>0.57794</v>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="C38">
-        <v>-1.191</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>0.57794000000000001</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38">
+        <v>-1.1910000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
-        <v>0.69032</v>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <f t="shared" ca="1" si="0"/>
+        <v>28</v>
       </c>
       <c r="C39">
-        <v>-1.745</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>0.69032000000000004</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39">
+        <v>-1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
-        <v>0.54673</v>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <f t="shared" ca="1" si="0"/>
+        <v>46</v>
       </c>
       <c r="C40">
-        <v>-1.745</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>0.54673000000000005</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>-1.7450000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
-        <v>0.68408</v>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <f t="shared" ca="1" si="0"/>
+        <v>30</v>
       </c>
       <c r="C41">
+        <v>0.68408000000000002</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41">
         <v>-0.439</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
-        <v>0.59043</v>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <f t="shared" ca="1" si="0"/>
+        <v>42</v>
       </c>
       <c r="C42">
-        <v>-1.666</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>0.59043000000000001</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>-1.6659999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
-        <v>0.62165</v>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
       </c>
       <c r="C43">
-        <v>-1.507</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>0.62165000000000004</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>-1.5069999999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
-        <v>0.67159</v>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <f t="shared" ca="1" si="0"/>
+        <v>74</v>
       </c>
       <c r="C44">
-        <v>-0.518</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>0.67159000000000002</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44">
+        <v>-0.51800000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C45">
         <v>0.66535</v>
       </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="C45">
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45">
         <v>-1.27</v>
       </c>
     </row>
